--- a/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR GAMBUT 2017.xlsx
+++ b/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR GAMBUT 2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Kuliah\semester6\KD\Data-Mining\Hands On 3 Studi Kasus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FCC43B-6612-447F-882D-7CF251A60758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB00A7D-53B4-4630-9CC0-BAEB82E30F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-3720" windowWidth="23256" windowHeight="13176" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARET" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="125">
   <si>
     <t>HARGA PANGAN POKOK DI TINGKAT KONSUMEN</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>28 Agt</t>
-  </si>
-  <si>
-    <t>acc</t>
   </si>
   <si>
     <t>:  Juli 2017</t>
@@ -753,6 +750,45 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -798,50 +834,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -851,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,20 +1161,20 @@
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1190,25 +1187,25 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1221,7 +1218,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1242,7 +1239,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1259,11 +1256,11 @@
         <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1276,49 +1273,49 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="G8" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1330,12 +1327,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -1353,15 +1350,15 @@
       <c r="H10" s="29">
         <v>13250</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f>AVERAGE(E10:J10)</f>
         <v>12312.5</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -1379,15 +1376,15 @@
       <c r="H11" s="29">
         <v>10750</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f>AVERAGE(E11:J11)</f>
         <v>10187.5</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -1405,15 +1402,15 @@
       <c r="H12" s="31">
         <v>8500</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f>AVERAGE(E12:J12)</f>
         <v>8175</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1433,14 +1430,14 @@
       <c r="H13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1460,14 +1457,14 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -1487,15 +1484,15 @@
       <c r="H15" s="32">
         <v>25000</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f>AVERAGE(E15:J15)</f>
         <v>24250</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1515,15 +1512,15 @@
       <c r="H16" s="10">
         <v>12500</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f>AVERAGE(E16:J16)</f>
         <v>12250</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1535,12 +1532,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -1558,15 +1555,15 @@
       <c r="H18" s="29">
         <v>28000</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>32000</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -1584,15 +1581,15 @@
       <c r="H19" s="31">
         <v>36000</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>36000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1604,13 +1601,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -1628,8 +1625,8 @@
       <c r="H21" s="28">
         <v>25000</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>41250</v>
@@ -1637,7 +1634,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -1655,8 +1652,8 @@
       <c r="H22" s="28">
         <v>30000</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>37500</v>
@@ -1664,7 +1661,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -1682,15 +1679,15 @@
       <c r="H23" s="39">
         <v>70000</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="39">
         <f>AVERAGE(E23:J23)</f>
         <v>87500</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1702,12 +1699,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -1725,15 +1722,15 @@
       <c r="H25" s="36">
         <v>130000</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35">
         <f>AVERAGE(E25:J25)</f>
         <v>128750</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -1751,15 +1748,15 @@
       <c r="H26" s="31">
         <v>21000</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>20000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -1771,12 +1768,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -1794,15 +1791,15 @@
       <c r="H28" s="28">
         <v>19000</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>19500</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -1820,15 +1817,15 @@
       <c r="H29" s="30">
         <v>2000</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2375</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -1848,15 +1845,15 @@
       <c r="H30" s="10">
         <v>11000</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>10250</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -1876,16 +1873,16 @@
       <c r="H31" s="10">
         <v>6500</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6500</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1897,7 +1894,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1909,7 +1906,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1921,7 +1918,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1933,7 +1930,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1945,7 +1942,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1957,7 +1954,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1969,7 +1966,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1981,7 +1978,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -1992,7 +1989,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2004,7 +2001,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2016,7 +2013,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2028,7 +2025,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2040,7 +2037,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2052,7 +2049,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2064,7 +2061,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2076,7 +2073,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2088,16 +2085,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -2106,27 +2124,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2139,23 +2136,25 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2168,22 +2167,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2196,7 +2195,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -2217,7 +2216,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2238,7 +2237,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2251,31 +2250,31 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="7" t="s">
         <v>65</v>
       </c>
@@ -2288,12 +2287,12 @@
       <c r="H8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2305,12 +2304,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -2324,15 +2323,15 @@
       <c r="H10" s="29">
         <v>10500</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>10500</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -2346,15 +2345,15 @@
       <c r="H11" s="29">
         <v>9000</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -2368,15 +2367,15 @@
       <c r="H12" s="31">
         <v>7000</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -2392,15 +2391,15 @@
       <c r="H13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -2416,15 +2415,15 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -2440,15 +2439,15 @@
       <c r="H15" s="32">
         <v>25000</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2464,15 +2463,15 @@
       <c r="H16" s="10">
         <v>11500</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>11750</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -2484,12 +2483,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -2503,15 +2502,15 @@
       <c r="H18" s="29">
         <v>20000</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>20000</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -2525,15 +2524,15 @@
       <c r="H19" s="31">
         <v>18000</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>18000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2545,13 +2544,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -2565,8 +2564,8 @@
       <c r="H21" s="28">
         <v>35000</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>30000</v>
@@ -2574,7 +2573,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -2588,8 +2587,8 @@
       <c r="H22" s="28">
         <v>35000</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>30000</v>
@@ -2597,7 +2596,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -2611,15 +2610,15 @@
       <c r="H23" s="30">
         <v>95000</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>72500</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -2631,12 +2630,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -2648,15 +2647,15 @@
         <v>70</v>
       </c>
       <c r="H25" s="36"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35" t="e">
         <f>AVERAGE(E25:J25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -2670,15 +2669,15 @@
       <c r="H26" s="31">
         <v>25000</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>25000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -2690,12 +2689,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -2709,15 +2708,15 @@
       <c r="H28" s="28">
         <v>26000</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>25500</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -2731,15 +2730,15 @@
       <c r="H29" s="30">
         <v>2300</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2300</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -2755,15 +2754,15 @@
       <c r="H30" s="10">
         <v>10500</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>10500</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -2779,16 +2778,16 @@
       <c r="H31" s="10">
         <v>6000</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2800,7 +2799,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2812,7 +2811,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2824,7 +2823,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2836,7 +2835,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2848,7 +2847,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2860,7 +2859,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2872,7 +2871,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2884,7 +2883,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2895,7 +2894,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2907,7 +2906,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2919,7 +2918,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2931,7 +2930,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2943,7 +2942,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2955,7 +2954,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2967,7 +2966,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2979,7 +2978,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2991,16 +2990,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -3009,27 +3029,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3044,21 +3043,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3078,29 +3077,29 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3120,7 +3119,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -3143,7 +3142,7 @@
       <c r="P4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -3166,7 +3165,7 @@
       <c r="P5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -3189,7 +3188,7 @@
       <c r="P6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -3212,7 +3211,7 @@
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3232,38 +3231,38 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="44" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="57" t="s">
         <v>12</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+    <row r="10" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3297,14 +3296,14 @@
       <c r="O10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="72" t="s">
+      <c r="P10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="71"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
@@ -3323,12 +3322,12 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
       <c r="R11" s="10"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -3347,12 +3346,12 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="10"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
@@ -3371,12 +3370,12 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
       <c r="R13" s="10"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
@@ -3395,12 +3394,12 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
       <c r="R14" s="10"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
@@ -3419,12 +3418,12 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
       <c r="R15" s="10"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>35</v>
       </c>
@@ -3443,12 +3442,12 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="10"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
@@ -3467,12 +3466,12 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="10"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
@@ -3491,12 +3490,12 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="10"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
@@ -3515,12 +3514,12 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="10"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
@@ -3539,13 +3538,13 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
       <c r="R20" s="10"/>
       <c r="S20" s="1"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>45</v>
       </c>
@@ -3564,13 +3563,13 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="10"/>
       <c r="S21" s="1"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
@@ -3589,12 +3588,12 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
       <c r="R22" s="10"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -3613,12 +3612,12 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
       <c r="R23" s="10"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
@@ -3637,12 +3636,12 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="10"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>53</v>
       </c>
@@ -3661,12 +3660,12 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="10"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
@@ -3685,12 +3684,12 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
       <c r="R26" s="10"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>57</v>
       </c>
@@ -3709,12 +3708,12 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="10"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>59</v>
       </c>
@@ -3733,13 +3732,13 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
       <c r="R28" s="10"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3758,7 +3757,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3777,7 +3776,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3796,7 +3795,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3815,7 +3814,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3834,7 +3833,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3853,7 +3852,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3872,7 +3871,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3891,7 +3890,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
@@ -3909,7 +3908,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3928,7 +3927,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="21"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3947,7 +3946,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3966,7 +3965,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="21"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3985,7 +3984,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4004,7 +4003,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4023,7 +4022,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4042,7 +4041,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4061,16 +4060,32 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="P28:Q28"/>
@@ -4079,22 +4094,6 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4109,20 +4108,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4135,22 +4134,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4163,7 +4162,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -4184,7 +4183,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -4201,11 +4200,11 @@
         <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4218,49 +4217,49 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="G8" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -4272,12 +4271,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -4295,15 +4294,15 @@
       <c r="H10" s="29">
         <v>14500</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f>AVERAGE(E10:J10)</f>
         <v>14187.5</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -4321,15 +4320,15 @@
       <c r="H11" s="29">
         <v>12000</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f>AVERAGE(E11:J11)</f>
         <v>11687.5</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -4347,15 +4346,15 @@
       <c r="H12" s="31">
         <v>8500</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f>AVERAGE(E12:J12)</f>
         <v>8325</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -4375,14 +4374,14 @@
       <c r="H13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -4402,15 +4401,15 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30">
         <f>AVERAGE(E14:H14)</f>
         <v>15000</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -4430,15 +4429,15 @@
       <c r="H15" s="32">
         <v>25000</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f>AVERAGE(E15:J15)</f>
         <v>25000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -4458,15 +4457,15 @@
       <c r="H16" s="10">
         <v>12500</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f>AVERAGE(E16:J16)</f>
         <v>12500</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -4478,12 +4477,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -4501,15 +4500,15 @@
       <c r="H18" s="29">
         <v>28000</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>29250</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -4527,15 +4526,15 @@
       <c r="H19" s="31">
         <v>38000</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>36000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -4547,13 +4546,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -4571,8 +4570,8 @@
       <c r="H21" s="28">
         <v>25000</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>28750</v>
@@ -4580,7 +4579,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -4598,8 +4597,8 @@
       <c r="H22" s="28">
         <v>30000</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>31250</v>
@@ -4607,7 +4606,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -4625,15 +4624,15 @@
       <c r="H23" s="30">
         <v>50000</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>55000</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -4645,12 +4644,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -4668,15 +4667,15 @@
       <c r="H25" s="36">
         <v>130000</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35">
         <f>AVERAGE(E25:J25)</f>
         <v>130000</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -4694,15 +4693,15 @@
       <c r="H26" s="31">
         <v>23000</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>22000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -4714,12 +4713,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -4737,15 +4736,15 @@
       <c r="H28" s="28">
         <v>19000</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>19250</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -4763,15 +4762,15 @@
       <c r="H29" s="30">
         <v>2500</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2500</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -4791,15 +4790,15 @@
       <c r="H30" s="10">
         <v>10000</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>10375</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -4819,16 +4818,16 @@
       <c r="H31" s="10">
         <v>6500</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6500</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4840,7 +4839,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4852,7 +4851,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4864,7 +4863,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4876,7 +4875,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4888,7 +4887,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4900,7 +4899,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4912,7 +4911,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4924,7 +4923,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -4935,7 +4934,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4947,7 +4946,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4959,7 +4958,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4971,7 +4970,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4983,7 +4982,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4995,7 +4994,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5007,7 +5006,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5019,7 +5018,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5031,16 +5030,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -5049,27 +5069,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5084,20 +5083,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5110,22 +5109,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5138,7 +5137,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -5159,7 +5158,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -5176,11 +5175,11 @@
         <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5193,51 +5192,51 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="G8" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="I8" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -5249,12 +5248,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -5272,17 +5271,17 @@
       <c r="H10" s="29">
         <v>13250</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="50">
         <v>13250</v>
       </c>
-      <c r="J10" s="59"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f>AVERAGE(E10:J10)</f>
         <v>13250</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -5300,17 +5299,17 @@
       <c r="H11" s="29">
         <v>10750</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="50">
         <v>10750</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f>AVERAGE(E11:J11)</f>
         <v>10550</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -5328,17 +5327,17 @@
       <c r="H12" s="31">
         <v>8500</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="41">
         <v>8500</v>
       </c>
-      <c r="J12" s="61"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f>AVERAGE(E12:J12)</f>
         <v>8500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -5358,16 +5357,16 @@
       <c r="H13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="62"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -5387,16 +5386,16 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -5416,17 +5415,17 @@
       <c r="H15" s="32">
         <v>25000</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="43">
         <v>25000</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f>AVERAGE(E15:J15)</f>
         <v>25000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -5446,17 +5445,17 @@
       <c r="H16" s="10">
         <v>12800</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="45">
         <v>13000</v>
       </c>
-      <c r="J16" s="62"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f>AVERAGE(E16:J16)</f>
         <v>12660</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -5468,12 +5467,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -5491,17 +5490,17 @@
       <c r="H18" s="29">
         <v>22000</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="50">
         <v>20000</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>21800</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -5519,17 +5518,17 @@
       <c r="H19" s="31">
         <v>50000</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="41">
         <v>55000</v>
       </c>
-      <c r="J19" s="61"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>47200</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -5541,13 +5540,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -5565,10 +5564,10 @@
       <c r="H21" s="28">
         <v>28000</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="50">
         <v>30000</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>25600</v>
@@ -5576,7 +5575,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -5594,10 +5593,10 @@
       <c r="H22" s="28">
         <v>30000</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="50">
         <v>30000</v>
       </c>
-      <c r="J22" s="59"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>30000</v>
@@ -5605,7 +5604,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -5623,17 +5622,17 @@
       <c r="H23" s="30">
         <v>60000</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="41">
         <v>55000</v>
       </c>
-      <c r="J23" s="61"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>55000</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -5645,12 +5644,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -5668,17 +5667,17 @@
       <c r="H25" s="36">
         <v>130000</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="48">
         <v>130000</v>
       </c>
-      <c r="J25" s="68"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35">
         <f>AVERAGE(E25:J25)</f>
         <v>130000</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -5696,17 +5695,17 @@
       <c r="H26" s="31">
         <v>23000</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="41">
         <v>23000</v>
       </c>
-      <c r="J26" s="61"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>22400</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -5718,12 +5717,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -5741,17 +5740,17 @@
       <c r="H28" s="28">
         <v>23000</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="50">
         <v>23000</v>
       </c>
-      <c r="J28" s="59"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>22200</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -5769,17 +5768,17 @@
       <c r="H29" s="30">
         <v>2500</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="41">
         <v>2500</v>
       </c>
-      <c r="J29" s="61"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2500</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -5799,17 +5798,17 @@
       <c r="H30" s="10">
         <v>11000</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="43">
         <v>11000</v>
       </c>
-      <c r="J30" s="64"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>11000</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -5829,18 +5828,18 @@
       <c r="H31" s="10">
         <v>6000</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="45">
         <v>6000</v>
       </c>
-      <c r="J31" s="62"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5852,7 +5851,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5864,7 +5863,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5876,7 +5875,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5888,7 +5887,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5900,7 +5899,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5912,7 +5911,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5924,7 +5923,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5936,7 +5935,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -5947,7 +5946,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5959,7 +5958,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5971,7 +5970,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5983,7 +5982,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5995,7 +5994,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6007,7 +6006,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6019,7 +6018,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6031,7 +6030,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6043,16 +6042,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -6061,27 +6081,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6094,23 +6093,25 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -6123,22 +6124,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6151,7 +6152,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -6172,7 +6173,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -6189,11 +6190,11 @@
         <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6206,49 +6207,49 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="G8" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -6260,12 +6261,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -6279,15 +6280,15 @@
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f>AVERAGE(E10:J10)</f>
         <v>13875</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -6301,15 +6302,15 @@
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f>AVERAGE(E11:J11)</f>
         <v>10750</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -6323,15 +6324,15 @@
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f>AVERAGE(E12:J12)</f>
         <v>8500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -6347,14 +6348,14 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -6370,14 +6371,14 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -6393,15 +6394,15 @@
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f>AVERAGE(E15:J15)</f>
         <v>28000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -6417,15 +6418,15 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f>AVERAGE(E16:J16)</f>
         <v>12500</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -6437,12 +6438,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -6456,15 +6457,15 @@
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>33000</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -6478,15 +6479,15 @@
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>47500</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -6498,13 +6499,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -6518,8 +6519,8 @@
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>30000</v>
@@ -6527,7 +6528,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -6541,8 +6542,8 @@
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>35000</v>
@@ -6550,7 +6551,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -6564,15 +6565,15 @@
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>60000</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -6584,12 +6585,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -6603,14 +6604,14 @@
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35" t="s">
         <v>70</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -6624,15 +6625,15 @@
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>23000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -6644,12 +6645,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -6663,15 +6664,15 @@
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>22000</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -6685,15 +6686,15 @@
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2500</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -6709,15 +6710,15 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>11000</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -6733,16 +6734,16 @@
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6754,7 +6755,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6766,7 +6767,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6778,7 +6779,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6790,7 +6791,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6802,7 +6803,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6814,7 +6815,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6826,7 +6827,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6838,7 +6839,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -6849,7 +6850,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6861,7 +6862,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6873,7 +6874,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6885,7 +6886,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6897,7 +6898,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6909,7 +6910,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6921,7 +6922,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6933,7 +6934,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6945,16 +6946,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -6963,27 +6985,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6996,24 +6997,24 @@
   </sheetPr>
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -7026,22 +7027,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7054,7 +7055,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -7075,7 +7076,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -7092,11 +7093,11 @@
         <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>63</v>
@@ -7105,14 +7106,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="I6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7125,51 +7126,51 @@
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="52" t="s">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="58"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="G9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="I9" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
@@ -7181,12 +7182,12 @@
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="23"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>26</v>
@@ -7204,17 +7205,17 @@
       <c r="H11" s="29">
         <v>14500</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="50">
         <v>12000</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f>AVERAGE(E11:J11)</f>
         <v>14000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
@@ -7232,17 +7233,17 @@
       <c r="H12" s="29">
         <v>9000</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="50">
         <v>10750</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="28">
         <f>AVERAGE(E12:J12)</f>
         <v>10900</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>30</v>
@@ -7260,17 +7261,17 @@
       <c r="H13" s="31">
         <v>8500</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="41">
         <v>8500</v>
       </c>
-      <c r="J13" s="61"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="28">
         <f>AVERAGE(E13:J13)</f>
         <v>8800</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -7290,16 +7291,16 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>29</v>
       </c>
@@ -7319,16 +7320,16 @@
       <c r="H15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="62"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
@@ -7348,17 +7349,17 @@
       <c r="H16" s="32">
         <v>25000</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="43">
         <v>25000</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="23">
         <f>AVERAGE(E16:J16)</f>
         <v>26000</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7378,17 +7379,17 @@
       <c r="H17" s="10">
         <v>12500</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="45">
         <v>12500</v>
       </c>
-      <c r="J17" s="62"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="10">
         <f>AVERAGE(E17:J17)</f>
         <v>12500</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
@@ -7400,12 +7401,12 @@
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19" s="26" t="s">
         <v>40</v>
@@ -7423,17 +7424,17 @@
       <c r="H19" s="29">
         <v>32000</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="50">
         <v>25000</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="28">
         <f>AVERAGE(E19:J19)</f>
         <v>33400</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="26" t="s">
         <v>42</v>
@@ -7451,17 +7452,17 @@
       <c r="H20" s="31">
         <v>30000</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="41">
         <v>30000</v>
       </c>
-      <c r="J20" s="61"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="30">
         <f>AVERAGE(E20:J20)</f>
         <v>32000</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
@@ -7473,13 +7474,13 @@
       <c r="F21" s="17"/>
       <c r="G21" s="24"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="28"/>
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>44</v>
@@ -7497,10 +7498,10 @@
       <c r="H22" s="28">
         <v>30000</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="50">
         <v>30000</v>
       </c>
-      <c r="J22" s="59"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>30000</v>
@@ -7508,7 +7509,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="33"/>
       <c r="C23" s="26" t="s">
         <v>46</v>
@@ -7526,10 +7527,10 @@
       <c r="H23" s="28">
         <v>30000</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="50">
         <v>30000</v>
       </c>
-      <c r="J23" s="59"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="28">
         <f>AVERAGE(E23:J23)</f>
         <v>32000</v>
@@ -7537,7 +7538,7 @@
       <c r="L23" s="1"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="18"/>
       <c r="C24" s="12" t="s">
         <v>48</v>
@@ -7555,17 +7556,17 @@
       <c r="H24" s="30">
         <v>50000</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="41">
         <v>40000</v>
       </c>
-      <c r="J24" s="61"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="30">
         <f>AVERAGE(E24:J24)</f>
         <v>54000</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
@@ -7577,12 +7578,12 @@
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="28"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="26" t="s">
         <v>50</v>
@@ -7600,17 +7601,17 @@
       <c r="H26" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="68"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="35">
         <f>AVERAGE(E26:J26)</f>
         <v>130000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
       <c r="C27" s="26" t="s">
         <v>52</v>
@@ -7628,17 +7629,17 @@
       <c r="H27" s="31">
         <v>23000</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="41">
         <v>23000</v>
       </c>
-      <c r="J27" s="61"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="30">
         <f>AVERAGE(E27:J27)</f>
         <v>23000</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>41</v>
       </c>
@@ -7650,12 +7651,12 @@
       <c r="F28" s="17"/>
       <c r="G28" s="24"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="28"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="33"/>
       <c r="C29" s="26" t="s">
         <v>54</v>
@@ -7673,17 +7674,17 @@
       <c r="H29" s="28">
         <v>23000</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="50">
         <v>22000</v>
       </c>
-      <c r="J29" s="59"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="28">
         <f>AVERAGE(E29:J29)</f>
         <v>21200</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="18"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
@@ -7701,17 +7702,17 @@
       <c r="H30" s="30">
         <v>2500</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="41">
         <v>2500</v>
       </c>
-      <c r="J30" s="61"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="30">
         <f>AVERAGE(E30:J30)</f>
         <v>2540</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>45</v>
       </c>
@@ -7731,17 +7732,17 @@
       <c r="H31" s="10">
         <v>11000</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="43">
         <v>11000</v>
       </c>
-      <c r="J31" s="64"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>10900</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
@@ -7761,18 +7762,18 @@
       <c r="H32" s="10">
         <v>6000</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="45">
         <v>6000</v>
       </c>
-      <c r="J32" s="62"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="10">
         <f>AVERAGE(E32:J32)</f>
         <v>6100</v>
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7784,7 +7785,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7796,7 +7797,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -7808,7 +7809,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -7820,7 +7821,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -7832,7 +7833,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -7844,7 +7845,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7856,7 +7857,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -7868,7 +7869,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
@@ -7879,7 +7880,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -7891,7 +7892,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -7903,7 +7904,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -7915,7 +7916,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -7927,7 +7928,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -7939,7 +7940,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -7951,7 +7952,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -7963,7 +7964,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -7975,16 +7976,37 @@
       <c r="J50" s="1"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="21"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
@@ -7993,27 +8015,6 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8026,22 +8027,24 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8054,22 +8057,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8082,7 +8085,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -8103,7 +8106,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -8124,7 +8127,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8137,31 +8140,31 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
         <v>92</v>
       </c>
@@ -8174,12 +8177,12 @@
       <c r="H8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -8191,12 +8194,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -8214,15 +8217,15 @@
       <c r="H10" s="29">
         <v>12000</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f>AVERAGE(E10:J10)</f>
         <v>11250</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -8240,15 +8243,15 @@
       <c r="H11" s="29">
         <v>8000</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f>AVERAGE(E11:J11)</f>
         <v>8400</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -8266,15 +8269,15 @@
       <c r="H12" s="31">
         <v>7500</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f>AVERAGE(E12:J12)</f>
         <v>7200</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -8294,14 +8297,14 @@
       <c r="H13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -8321,14 +8324,14 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -8348,15 +8351,15 @@
       <c r="H15" s="32">
         <v>28000</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f>AVERAGE(E15:J15)</f>
         <v>27500</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -8376,15 +8379,15 @@
       <c r="H16" s="10">
         <v>12500</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f>AVERAGE(E16:J16)</f>
         <v>12500</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -8396,12 +8399,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -8419,15 +8422,15 @@
       <c r="H18" s="29">
         <v>20000</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>25000</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -8445,15 +8448,15 @@
       <c r="H19" s="31">
         <v>20000</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>27500</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -8465,13 +8468,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -8489,8 +8492,8 @@
       <c r="H21" s="28">
         <v>28000</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>29000</v>
@@ -8498,7 +8501,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -8516,8 +8519,8 @@
       <c r="H22" s="28">
         <v>28000</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>33250</v>
@@ -8525,7 +8528,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -8543,15 +8546,15 @@
       <c r="H23" s="30">
         <v>50000</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>52500</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -8563,12 +8566,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -8586,14 +8589,14 @@
       <c r="H25" s="36">
         <v>130000</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35" t="s">
         <v>70</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -8611,15 +8614,15 @@
       <c r="H26" s="31">
         <v>22000</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>23750</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -8631,12 +8634,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -8654,15 +8657,15 @@
       <c r="H28" s="28">
         <v>22000</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>22000</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -8680,15 +8683,15 @@
       <c r="H29" s="30">
         <v>2500</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2500</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -8708,15 +8711,15 @@
       <c r="H30" s="10">
         <v>11500</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>11125</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -8736,34 +8739,28 @@
       <c r="H31" s="10">
         <v>6500</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6250</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8775,7 +8772,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8787,7 +8784,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8799,7 +8796,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8811,7 +8808,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8823,7 +8820,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8835,7 +8832,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8847,7 +8844,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -8858,7 +8855,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8870,7 +8867,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8882,7 +8879,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -8894,7 +8891,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8906,7 +8903,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8918,7 +8915,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -8930,7 +8927,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -8942,7 +8939,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -8954,16 +8951,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -8972,27 +8990,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9007,20 +9004,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9033,22 +9030,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9061,7 +9058,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -9082,7 +9079,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -9103,7 +9100,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9116,31 +9113,31 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
         <v>87</v>
       </c>
@@ -9153,12 +9150,12 @@
       <c r="H8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -9170,12 +9167,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -9193,15 +9190,15 @@
       <c r="H10" s="29">
         <v>14500</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>14500</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -9219,15 +9216,15 @@
       <c r="H11" s="29">
         <v>12000</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f t="shared" si="0"/>
         <v>11062.5</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -9245,15 +9242,15 @@
       <c r="H12" s="31">
         <v>8500</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -9273,15 +9270,15 @@
       <c r="H13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -9301,15 +9298,15 @@
       <c r="H14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -9329,15 +9326,15 @@
       <c r="H15" s="32">
         <v>25000</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>27250</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -9357,15 +9354,15 @@
       <c r="H16" s="10">
         <v>12000</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>12250</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -9377,12 +9374,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -9400,15 +9397,15 @@
       <c r="H18" s="29">
         <v>20000</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>18750</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -9426,15 +9423,15 @@
       <c r="H19" s="31">
         <v>20000</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>19500</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -9446,13 +9443,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -9470,8 +9467,8 @@
       <c r="H21" s="28">
         <v>20000</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>23250</v>
@@ -9479,7 +9476,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -9497,8 +9494,8 @@
       <c r="H22" s="28">
         <v>25000</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>25750</v>
@@ -9506,7 +9503,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -9524,15 +9521,15 @@
       <c r="H23" s="30">
         <v>50000</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>50000</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -9544,12 +9541,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -9567,15 +9564,15 @@
       <c r="H25" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35" t="e">
         <f>AVERAGE(E25:J25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -9593,15 +9590,15 @@
       <c r="H26" s="31">
         <v>18000</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>19000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -9613,12 +9610,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -9636,15 +9633,15 @@
       <c r="H28" s="28">
         <v>20000</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>20500</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -9662,15 +9659,15 @@
       <c r="H29" s="30">
         <v>2300</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2300</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -9690,15 +9687,15 @@
       <c r="H30" s="10">
         <v>10500</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>11000</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -9718,16 +9715,16 @@
       <c r="H31" s="10">
         <v>6000</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6375</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -9739,7 +9736,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -9751,7 +9748,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -9763,7 +9760,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -9775,7 +9772,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -9787,7 +9784,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -9799,7 +9796,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -9811,7 +9808,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -9823,7 +9820,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -9834,7 +9831,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -9846,7 +9843,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -9858,7 +9855,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9870,7 +9867,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -9882,7 +9879,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -9894,7 +9891,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -9906,7 +9903,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -9918,7 +9915,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -9930,16 +9927,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -9948,27 +9966,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9981,23 +9978,25 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" style="20" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10010,22 +10009,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10038,7 +10037,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -10059,7 +10058,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -10080,7 +10079,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10093,31 +10092,31 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
         <v>81</v>
       </c>
@@ -10130,14 +10129,14 @@
       <c r="H8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -10149,12 +10148,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -10166,15 +10165,15 @@
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
-        <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
+        <f>AVERAGE(E10:J10)</f>
         <v>14500</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -10186,15 +10185,15 @@
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K10:K16" si="0">AVERAGE(E11:J11)</f>
         <v>12000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -10206,15 +10205,15 @@
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -10228,15 +10227,15 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E13:J13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -10250,15 +10249,15 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -10272,15 +10271,15 @@
       <c r="F15" s="10"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -10294,15 +10293,15 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -10314,12 +10313,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -10331,15 +10330,15 @@
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>15000</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -10351,15 +10350,15 @@
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>17000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -10371,13 +10370,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -10389,8 +10388,8 @@
       <c r="F21" s="17"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>20000</v>
@@ -10398,7 +10397,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -10410,8 +10409,8 @@
       <c r="F22" s="17"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>20000</v>
@@ -10419,7 +10418,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -10431,15 +10430,15 @@
       <c r="F23" s="17"/>
       <c r="G23" s="31"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>50000</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -10451,12 +10450,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -10468,15 +10467,15 @@
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35" t="e">
         <f>AVERAGE(E25:J25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -10488,15 +10487,15 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>20000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -10508,12 +10507,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -10525,15 +10524,15 @@
       <c r="F28" s="17"/>
       <c r="G28" s="29"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>20000</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -10545,15 +10544,15 @@
       <c r="F29" s="17"/>
       <c r="G29" s="31"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2400</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -10567,15 +10566,15 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>10500</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -10589,16 +10588,16 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -10610,7 +10609,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -10622,7 +10621,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -10634,7 +10633,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -10646,7 +10645,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -10658,7 +10657,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -10670,7 +10669,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -10682,7 +10681,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -10694,7 +10693,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -10705,7 +10704,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -10717,7 +10716,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -10729,7 +10728,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -10741,7 +10740,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -10753,7 +10752,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -10765,7 +10764,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -10777,7 +10776,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -10789,7 +10788,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -10801,16 +10800,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -10819,27 +10839,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10852,25 +10851,25 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10883,22 +10882,22 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10911,7 +10910,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -10932,7 +10931,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -10953,7 +10952,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10966,31 +10965,31 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="37" t="s">
         <v>76</v>
       </c>
@@ -11003,12 +11002,12 @@
       <c r="H8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -11020,12 +11019,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
         <v>26</v>
@@ -11037,15 +11036,15 @@
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="28">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>10500</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -11057,15 +11056,15 @@
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="28">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -11077,15 +11076,15 @@
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="28">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -11099,15 +11098,15 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -11121,15 +11120,15 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
@@ -11143,15 +11142,15 @@
       <c r="F15" s="10"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -11165,15 +11164,15 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
@@ -11185,12 +11184,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
@@ -11202,15 +11201,15 @@
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="28">
         <f>AVERAGE(E18:J18)</f>
         <v>18000</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -11222,15 +11221,15 @@
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="30">
         <f>AVERAGE(E19:J19)</f>
         <v>17000</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -11242,13 +11241,13 @@
       <c r="F20" s="17"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="28"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33"/>
       <c r="C21" s="26" t="s">
         <v>44</v>
@@ -11260,8 +11259,8 @@
       <c r="F21" s="17"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="28">
         <f>AVERAGE(E21:J21)</f>
         <v>20000</v>
@@ -11269,7 +11268,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
         <v>46</v>
@@ -11281,8 +11280,8 @@
       <c r="F22" s="17"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="28">
         <f>AVERAGE(E22:J22)</f>
         <v>20000</v>
@@ -11290,7 +11289,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
@@ -11302,15 +11301,15 @@
       <c r="F23" s="17"/>
       <c r="G23" s="31"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="30">
         <f>AVERAGE(E23:J23)</f>
         <v>50000</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -11322,12 +11321,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="28"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
         <v>50</v>
@@ -11339,15 +11338,15 @@
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="35" t="e">
         <f>AVERAGE(E25:J25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -11359,15 +11358,15 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>AVERAGE(E26:J26)</f>
         <v>22000</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -11379,12 +11378,12 @@
       <c r="F27" s="17"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="28"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="33"/>
       <c r="C28" s="26" t="s">
         <v>54</v>
@@ -11396,15 +11395,15 @@
       <c r="F28" s="17"/>
       <c r="G28" s="29"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="28">
         <f>AVERAGE(E28:J28)</f>
         <v>20000</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>56</v>
@@ -11416,15 +11415,15 @@
       <c r="F29" s="17"/>
       <c r="G29" s="31"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="30">
         <f>AVERAGE(E29:J29)</f>
         <v>2300</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
@@ -11438,15 +11437,15 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="10">
         <f>AVERAGE(E30:J30)</f>
         <v>10500</v>
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -11460,16 +11459,16 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="10">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11481,7 +11480,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -11493,7 +11492,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -11505,7 +11504,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11517,7 +11516,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -11529,7 +11528,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -11541,7 +11540,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -11553,7 +11552,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -11565,7 +11564,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -11576,7 +11575,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -11588,7 +11587,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -11600,7 +11599,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -11612,7 +11611,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -11624,7 +11623,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -11636,7 +11635,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -11648,7 +11647,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -11660,7 +11659,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -11672,16 +11671,37 @@
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
@@ -11690,27 +11710,6 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
